--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2043112.145631602</v>
+        <v>-2045593.065457062</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1382,13 +1382,13 @@
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>122.5245679224386</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
         <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579955</v>
+        <v>14.65678318579952</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>82.26761520104941</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>18.86496877806553</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
         <v>359.3177920689271</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>152.9118335948109</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>94.06040280118249</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
         <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292092</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>192.6288026890428</v>
@@ -1594,7 +1594,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>56.23325357722123</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>49.77746037045184</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F14" t="n">
         <v>379.955899154585</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I14" t="n">
-        <v>14.6567831857995</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.26761520104941</v>
       </c>
       <c r="T14" t="n">
-        <v>46.49937964902253</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>224.0750253717756</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W14" t="n">
         <v>322.3208221302866</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1816,10 +1816,10 @@
         <v>162.8488787443155</v>
       </c>
       <c r="T16" t="n">
-        <v>138.5088018854775</v>
+        <v>192.6288026890428</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>6.382182013010153</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y16" t="n">
         <v>191.6645067649684</v>
@@ -1847,10 +1847,10 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>255.7707269681039</v>
+        <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
         <v>332.9807625359924</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245684</v>
+        <v>35.29247858245682</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>72.31625413219236</v>
       </c>
       <c r="U17" t="n">
         <v>177.099888753183</v>
@@ -1904,7 +1904,7 @@
         <v>253.8569752644159</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>295.83581747275</v>
@@ -2002,25 +2002,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290882</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249336</v>
+        <v>137.1198840074564</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53867944085017</v>
+        <v>72.53867944085016</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721225</v>
+        <v>71.52576481721223</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330923</v>
+        <v>92.13052505330921</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860179</v>
+        <v>70.85973170860177</v>
       </c>
       <c r="I19" t="n">
-        <v>84.85683139908205</v>
+        <v>22.45713720411909</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432833</v>
+        <v>15.03686946432832</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2081,7 +2081,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D20" t="n">
         <v>280.7877584149639</v>
@@ -2096,7 +2096,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H20" t="n">
-        <v>183.4961803409489</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245685</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339012</v>
@@ -2138,16 +2138,16 @@
         <v>177.099888753183</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>233.147512401348</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,22 +2239,22 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C22" t="n">
-        <v>155.7512320878713</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249336</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085017</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721225</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330923</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860179</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I22" t="n">
         <v>22.45713720411911</v>
@@ -2293,7 +2293,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948565</v>
       </c>
       <c r="V22" t="n">
         <v>178.242360118109</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2318,7 +2318,7 @@
         <v>308.8385584577616</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652886</v>
       </c>
       <c r="D23" t="n">
         <v>280.7877584149639</v>
@@ -2333,7 +2333,7 @@
         <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>35.29247858245685</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
         <v>177.099888753183</v>
@@ -2476,25 +2476,25 @@
         <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290884</v>
+        <v>93.35153789290885</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249336</v>
+        <v>74.72018981249337</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085017</v>
+        <v>72.53867944085019</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721225</v>
+        <v>71.52576481721226</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330923</v>
+        <v>92.13052505330924</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860179</v>
+        <v>70.8597317086018</v>
       </c>
       <c r="I25" t="n">
-        <v>22.4571372041191</v>
+        <v>22.45713720411911</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>77.43656365929124</v>
+        <v>15.03686946432835</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948565</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2539,7 +2539,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833182</v>
       </c>
       <c r="Y25" t="n">
         <v>144.6893701463758</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3266,7 +3266,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429026</v>
       </c>
       <c r="D35" t="n">
         <v>256.998321392578</v>
@@ -3275,13 +3275,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007091</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383228</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052291</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010743</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482622</v>
+        <v>47.73632779482632</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621586</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>42.20693826439362</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333697</v>
       </c>
       <c r="T37" t="n">
-        <v>165.403467130725</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775078</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D38" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383232</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010738</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846419</v>
+        <v>48.74924241846428</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482635</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092325</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I40" t="n">
-        <v>50.95950582245138</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>164.0711673124577</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D41" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V41" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W41" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X41" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E43" t="n">
-        <v>92.28848050112497</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333687</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775078</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>154.452923095723</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>231.0452163728792</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609321</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239898</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429025</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D44" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G44" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592154</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007094</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U44" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279485</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383228</v>
+        <v>82.1472599538324</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052281</v>
+        <v>69.56210087052294</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010733</v>
+        <v>50.93075279010746</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>68.3410880309232</v>
+        <v>68.34108803092333</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621576</v>
+        <v>47.07029468621589</v>
       </c>
       <c r="I46" t="n">
-        <v>42.20693826439381</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333687</v>
+        <v>92.084305103337</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V46" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W46" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>170.2318734253253</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1890.704774781265</v>
+        <v>2154.822967855899</v>
       </c>
       <c r="C11" t="n">
-        <v>1548.934325100577</v>
+        <v>1813.052518175211</v>
       </c>
       <c r="D11" t="n">
-        <v>1217.86069375355</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E11" t="n">
-        <v>859.2645084150295</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>475.4706708851456</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645002</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299103</v>
+        <v>81.31694793299101</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3242.507220395988</v>
+        <v>3223.451696377741</v>
       </c>
       <c r="U11" t="n">
-        <v>3242.507220395988</v>
+        <v>3223.451696377741</v>
       </c>
       <c r="V11" t="n">
-        <v>2938.636400312141</v>
+        <v>3223.451696377741</v>
       </c>
       <c r="W11" t="n">
-        <v>2613.059812301751</v>
+        <v>3223.451696377741</v>
       </c>
       <c r="X11" t="n">
-        <v>2613.059812301751</v>
+        <v>2877.178005376385</v>
       </c>
       <c r="Y11" t="n">
-        <v>2250.112547585663</v>
+        <v>2514.230740660297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
         <v>618.1564155387305</v>
@@ -5106,46 +5106,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064581</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
         <v>2242.828302297192</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>611.9131494447421</v>
+        <v>782.2440901013232</v>
       </c>
       <c r="C13" t="n">
-        <v>611.9131494447421</v>
+        <v>640.49997443314</v>
       </c>
       <c r="D13" t="n">
-        <v>516.9026415647597</v>
+        <v>517.5754022805279</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420903</v>
+        <v>396.8543759578585</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420903</v>
+        <v>277.1564957196717</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765329</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>136.6457263541144</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.285694000374</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705054</v>
+        <v>368.9238220705058</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402566</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5218,31 +5218,31 @@
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.369902162335</v>
+        <v>2140.502109058534</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.795353991585</v>
+        <v>1945.927560887783</v>
       </c>
       <c r="U13" t="n">
-        <v>1456.884554376952</v>
+        <v>1684.016761273151</v>
       </c>
       <c r="V13" t="n">
-        <v>1229.392133430789</v>
+        <v>1456.524340326987</v>
       </c>
       <c r="W13" t="n">
-        <v>967.1670306535518</v>
+        <v>1194.29923754975</v>
       </c>
       <c r="X13" t="n">
-        <v>766.3695470152581</v>
+        <v>993.5017539114567</v>
       </c>
       <c r="Y13" t="n">
-        <v>766.3695470152581</v>
+        <v>936.7004876718393</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1884.43143472439</v>
+        <v>1848.52794967486</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.660985043702</v>
+        <v>1798.247686674404</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.587353696675</v>
+        <v>1467.174055327377</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9911683581547</v>
+        <v>1108.577869988856</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1973308282708</v>
+        <v>724.7840324589725</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299098</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299098</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
@@ -5288,7 +5288,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
@@ -5303,25 +5303,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3278.636751256623</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3278.636751256623</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V14" t="n">
-        <v>3278.636751256623</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W14" t="n">
-        <v>2953.060163246233</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>2606.786472244876</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="Y14" t="n">
-        <v>2243.839207528788</v>
+        <v>2207.935722479258</v>
       </c>
     </row>
     <row r="15">
@@ -5331,37 +5331,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.2692096237417</v>
+        <v>901.2692096237419</v>
       </c>
       <c r="C16" t="n">
-        <v>759.5250939555585</v>
+        <v>759.5250939555586</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029464</v>
+        <v>636.6005218029466</v>
       </c>
       <c r="E16" t="n">
-        <v>515.879495480277</v>
+        <v>515.8794954802771</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420903</v>
+        <v>396.1816152420904</v>
       </c>
       <c r="G16" t="n">
         <v>255.670845876533</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>136.6457263541145</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705059</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402572</v>
+        <v>712.1345656402571</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
@@ -5464,16 +5464,16 @@
         <v>1913.369902162335</v>
       </c>
       <c r="T16" t="n">
-        <v>1773.462021469934</v>
+        <v>1718.795353991585</v>
       </c>
       <c r="U16" t="n">
-        <v>1511.551221855301</v>
+        <v>1712.348705493595</v>
       </c>
       <c r="V16" t="n">
-        <v>1511.551221855301</v>
+        <v>1712.348705493595</v>
       </c>
       <c r="W16" t="n">
-        <v>1249.326119078064</v>
+        <v>1450.123602716358</v>
       </c>
       <c r="X16" t="n">
         <v>1249.326119078064</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542003</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809388</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D17" t="n">
-        <v>1224.583240809388</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446365</v>
+        <v>966.2289711446368</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628261</v>
       </c>
       <c r="G17" t="n">
         <v>289.4540166156193</v>
@@ -5513,10 +5513,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
@@ -5531,7 +5531,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5543,22 +5543,22 @@
         <v>3289.956853344063</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3216.910131998415</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417716</v>
+        <v>3038.021355480048</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281942</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219625</v>
+        <v>2781.600168344275</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166342</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398327</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5653,19 +5653,19 @@
         <v>537.8572904034449</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989062</v>
+        <v>399.3523570625799</v>
       </c>
       <c r="E19" t="n">
-        <v>389.11095782431</v>
+        <v>326.0809636879837</v>
       </c>
       <c r="F19" t="n">
-        <v>316.8627105341967</v>
+        <v>253.8327163978704</v>
       </c>
       <c r="G19" t="n">
-        <v>223.8015741167126</v>
+        <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>152.2260875423673</v>
+        <v>89.1960934060411</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1817.728115595286</v>
+        <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1523.407298862671</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D20" t="n">
-        <v>1239.783300463717</v>
+        <v>1277.375523535084</v>
       </c>
       <c r="E20" t="n">
-        <v>928.6367480732702</v>
+        <v>966.2289711446364</v>
       </c>
       <c r="F20" t="n">
-        <v>592.2925434914596</v>
+        <v>629.8847665628258</v>
       </c>
       <c r="G20" t="n">
-        <v>251.861793544253</v>
+        <v>289.4540166156193</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,7 +5768,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5786,16 +5786,16 @@
         <v>2979.732029417716</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.310842281942</v>
+        <v>2979.732029417716</v>
       </c>
       <c r="W20" t="n">
-        <v>2445.183887219625</v>
+        <v>2701.605074355399</v>
       </c>
       <c r="X20" t="n">
-        <v>2445.183887219625</v>
+        <v>2402.781016302116</v>
       </c>
       <c r="Y20" t="n">
-        <v>2129.68625545161</v>
+        <v>2167.278478522977</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>632.1517731235544</v>
+        <v>569.1217789872287</v>
       </c>
       <c r="C22" t="n">
         <v>474.8272962671188</v>
@@ -5911,13 +5911,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
         <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199204</v>
+        <v>1370.445531062879</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201114</v>
+        <v>1190.402743064789</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371951</v>
+        <v>975.6272732356249</v>
       </c>
       <c r="X22" t="n">
-        <v>885.3094166817302</v>
+        <v>822.2794225454045</v>
       </c>
       <c r="Y22" t="n">
-        <v>739.1585377459971</v>
+        <v>676.1285436096714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.18597705695</v>
+        <v>1862.185977056952</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324337</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925384</v>
       </c>
       <c r="E23" t="n">
-        <v>973.094609534935</v>
+        <v>973.0946095349364</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531258</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059183</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>429.6625348018609</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>763.4819084917074</v>
       </c>
       <c r="L23" t="n">
-        <v>1047.110472719763</v>
+        <v>1318.467498170161</v>
       </c>
       <c r="M23" t="n">
-        <v>1917.058658516337</v>
+        <v>1851.999402842086</v>
       </c>
       <c r="N23" t="n">
-        <v>2463.837475575119</v>
+        <v>2398.778219900868</v>
       </c>
       <c r="O23" t="n">
-        <v>2966.809946454456</v>
+        <v>2901.750690780205</v>
       </c>
       <c r="P23" t="n">
-        <v>3361.584312811634</v>
+        <v>3296.525057137384</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567317</v>
+        <v>3544.811418893066</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932666</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.59276179689</v>
+        <v>3066.592761796892</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734573</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.64174868129</v>
+        <v>2489.641748681292</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913275</v>
+        <v>2174.144116913277</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714071</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902801</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.022053929029</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235734</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504585</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
         <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094443</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130997</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934468</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
         <v>772.0173836061123</v>
@@ -6078,7 +6078,7 @@
         <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382882</v>
+        <v>1692.816752382883</v>
       </c>
       <c r="O24" t="n">
         <v>2103.778031800937</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821906</v>
+        <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.385128656429</v>
+        <v>1324.38512865643</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891475</v>
+        <v>1116.624829891476</v>
       </c>
     </row>
     <row r="25">
@@ -6124,34 +6124,34 @@
         <v>575.9874173775277</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574177</v>
+        <v>481.6929346574178</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528789</v>
+        <v>406.217995452879</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782828</v>
+        <v>332.9466020782829</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881694</v>
+        <v>260.6983547881695</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706853</v>
+        <v>167.6372183706854</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634007</v>
+        <v>96.06173179634011</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248239</v>
+        <v>73.37775482248242</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6169,16 +6169,16 @@
         <v>1934.160186478792</v>
       </c>
       <c r="R25" t="n">
-        <v>1855.94143530779</v>
+        <v>1918.971429444117</v>
       </c>
       <c r="S25" t="n">
-        <v>1738.897251342414</v>
+        <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119737</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1377.311169453178</v>
       </c>
       <c r="V25" t="n">
         <v>1197.268381455088</v>
@@ -6224,28 +6224,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>1045.699547878785</v>
+        <v>907.466041901396</v>
       </c>
       <c r="L26" t="n">
-        <v>1496.733761127193</v>
+        <v>1771.984857554751</v>
       </c>
       <c r="M26" t="n">
-        <v>2030.265665799118</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N26" t="n">
-        <v>2577.0444828579</v>
+        <v>2852.295579285458</v>
       </c>
       <c r="O26" t="n">
-        <v>3080.016953737237</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6303,28 +6303,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R27" t="n">
         <v>2579.543989590362</v>
@@ -6382,13 +6382,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6443,13 +6443,13 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E29" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
@@ -6464,25 +6464,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1222.285283814323</v>
+        <v>1635.769886219269</v>
       </c>
       <c r="M29" t="n">
-        <v>1755.817188486247</v>
+        <v>2169.301790891193</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.596005545029</v>
+        <v>2716.080607949976</v>
       </c>
       <c r="O29" t="n">
-        <v>2805.568476424366</v>
+        <v>3219.053078829313</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094414</v>
+        <v>3613.827445186491</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
@@ -6540,19 +6540,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
         <v>2111.547193875144</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
         <v>81.14691689668915</v>
@@ -6625,7 +6625,7 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689498</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.59465869716</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467775</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,52 +6698,52 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>792.1780824632688</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1243.212295711678</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1776.744200383602</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424366</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871311</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309625</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641919</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.89585086383</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468332</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146292</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833285</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805547</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6777,19 +6777,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643394</v>
@@ -6859,13 +6859,13 @@
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.267502797314</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464972</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,37 +6935,37 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
@@ -7005,10 +7005,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7017,16 +7017,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.9279421464336</v>
+        <v>642.2355359389144</v>
       </c>
       <c r="C37" t="n">
-        <v>626.6631937923701</v>
+        <v>571.9707875848508</v>
       </c>
       <c r="D37" t="n">
-        <v>575.2179889538778</v>
+        <v>520.5255827463584</v>
       </c>
       <c r="E37" t="n">
-        <v>525.9763299453282</v>
+        <v>372.6124891639653</v>
       </c>
       <c r="F37" t="n">
-        <v>477.7578170212613</v>
+        <v>324.3939762398983</v>
       </c>
       <c r="G37" t="n">
-        <v>310.0549803959803</v>
+        <v>156.6911396146172</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>109.1453874063184</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1568.534454692364</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U37" t="n">
-        <v>1378.103022391851</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1222.089968759808</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>1031.34423329669</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X37" t="n">
-        <v>902.0261169725164</v>
+        <v>946.0051453388409</v>
       </c>
       <c r="Y37" t="n">
-        <v>779.9049724028298</v>
+        <v>823.8840007691541</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103805</v>
@@ -7160,40 +7160,40 @@
         <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
@@ -7202,19 +7202,19 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7248,22 +7248,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.7336441225987</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4688957685352</v>
+        <v>529.3375166107159</v>
       </c>
       <c r="D40" t="n">
-        <v>332.0236909300429</v>
+        <v>379.2208771983802</v>
       </c>
       <c r="E40" t="n">
-        <v>282.7820319214932</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5635189974263</v>
+        <v>281.7607052657634</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5321169459887</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H40" t="n">
-        <v>117.9863647376899</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1744.44964124669</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1522.683025816216</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U40" t="n">
-        <v>1332.251593515703</v>
+        <v>1478.120214357884</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.567105309816</v>
+        <v>1322.10716072584</v>
       </c>
       <c r="W40" t="n">
-        <v>788.1499352728556</v>
+        <v>1032.68999068888</v>
       </c>
       <c r="X40" t="n">
-        <v>658.8318189486818</v>
+        <v>804.7004397908626</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.710674378995</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
     <row r="41">
@@ -7388,43 +7388,43 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C41" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D41" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296686</v>
@@ -7433,28 +7433,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>839.5784050866012</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C43" t="n">
-        <v>769.3136567325377</v>
+        <v>529.3375166107159</v>
       </c>
       <c r="D43" t="n">
-        <v>717.8684518940454</v>
+        <v>477.8923117722235</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,10 +7588,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
         <v>1834.280098489162</v>
@@ -7600,19 +7600,19 @@
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332018</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150365</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>804.7004397908626</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429974</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,7 +7743,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5641013650707</v>
+        <v>599.6022649647795</v>
       </c>
       <c r="C46" t="n">
-        <v>473.2993530110072</v>
+        <v>529.3375166107159</v>
       </c>
       <c r="D46" t="n">
-        <v>421.854148172515</v>
+        <v>477.8923117722235</v>
       </c>
       <c r="E46" t="n">
-        <v>372.6124891639653</v>
+        <v>329.9792181898304</v>
       </c>
       <c r="F46" t="n">
-        <v>225.7225416660549</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G46" t="n">
-        <v>156.6911396146173</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>109.1453874063186</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
         <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1612.513483058688</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1323.410616184332</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552288</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>976.6518270891709</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X46" t="n">
-        <v>748.6622761911535</v>
+        <v>903.3718743647059</v>
       </c>
       <c r="Y46" t="n">
-        <v>626.5411316214669</v>
+        <v>682.5792952211758</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430635</v>
+        <v>157.2353108430631</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729014</v>
+        <v>184.4039433729008</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389612</v>
+        <v>191.4948909389604</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333076</v>
+        <v>181.0856325333068</v>
       </c>
       <c r="N8" t="n">
-        <v>179.355374883025</v>
+        <v>179.3553748830241</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383999</v>
+        <v>182.8301554383991</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586592</v>
+        <v>190.8908035586585</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.010383626613</v>
+        <v>192.0103836266124</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875977</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372538</v>
+        <v>113.6031223372533</v>
       </c>
       <c r="L9" t="n">
-        <v>105.962971867228</v>
+        <v>105.9629718672274</v>
       </c>
       <c r="M9" t="n">
-        <v>104.10139812536</v>
+        <v>104.1013981253593</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677726</v>
+        <v>92.30246558677658</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359742</v>
+        <v>106.8829608359736</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798329</v>
+        <v>105.3113487798324</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615461</v>
+        <v>120.8212784615458</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564661</v>
+        <v>116.1755252564658</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085231</v>
+        <v>119.1996074085228</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140781</v>
+        <v>108.4284123140778</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530925</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662707</v>
+        <v>122.5080856662705</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>4.760636329592671e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>105.001390333379</v>
       </c>
       <c r="M23" t="n">
-        <v>339.8144253784337</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>277.2206841544149</v>
+        <v>306.6874953089243</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>277.2206841544151</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>137.5908801368505</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>190.2350110279876</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>167.7369666428374</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.392663762089796e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,13 +11300,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>261.4770111438884</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,19 +23309,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>158.1328547744282</v>
       </c>
       <c r="U11" t="n">
         <v>224.0750253717756</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>27.63492362990343</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8348683271944</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>62.01200608292091</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>162.8488787443155</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>135.4312531877471</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>288.5752848134293</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>130.4984439034712</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="15">
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>54.12000080356532</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>252.9095096054762</v>
       </c>
       <c r="V16" t="n">
         <v>225.2174967367016</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>52.26435989843887</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>57.70643280170877</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>37.21630084065256</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24026,16 +24026,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>79.19514304898664</v>
       </c>
     </row>
     <row r="21">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122891.4508075558</v>
+        <v>122891.4508075557</v>
       </c>
       <c r="C2" t="n">
         <v>122891.4508075558</v>
@@ -26326,10 +26326,10 @@
         <v>109431.0001357462</v>
       </c>
       <c r="G2" t="n">
+        <v>119179.6231869805</v>
+      </c>
+      <c r="H2" t="n">
         <v>119179.6231869804</v>
-      </c>
-      <c r="H2" t="n">
-        <v>119179.6231869805</v>
       </c>
       <c r="I2" t="n">
         <v>123156.2654796425</v>
@@ -26347,7 +26347,7 @@
         <v>123156.2654796426</v>
       </c>
       <c r="N2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="O2" t="n">
         <v>123156.2654796426</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552175</v>
+        <v>59764.5536755228</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.4678298336</v>
+        <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179695</v>
+        <v>25409.43302179683</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>37580.10929487408</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927242</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,10 +26421,10 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.938799543</v>
+        <v>421637.9387995426</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362514</v>
+        <v>38804.27401362513</v>
       </c>
       <c r="F4" t="n">
         <v>38804.27401362513</v>
@@ -26433,31 +26433,31 @@
         <v>75832.43437506736</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506742</v>
+        <v>75832.43437506736</v>
       </c>
       <c r="I4" t="n">
-        <v>88045.16093451303</v>
+        <v>88045.16093451309</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173093</v>
+        <v>84858.15940173084</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173084</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173094</v>
+        <v>84858.15940173085</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.01098815707</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815705</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.01098815716</v>
+        <v>90964.0109881571</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186636</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.4903648264</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26488,13 +26488,13 @@
         <v>80518.64312521489</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
@@ -26506,10 +26506,10 @@
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624985</v>
+        <v>82518.59730624987</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-352385.3991882647</v>
+        <v>-352389.8127661329</v>
       </c>
       <c r="C6" t="n">
-        <v>-352385.3991882647</v>
+        <v>-352389.8127661329</v>
       </c>
       <c r="D6" t="n">
-        <v>-393656.5974360391</v>
+        <v>-393660.9551861857</v>
       </c>
       <c r="E6" t="n">
-        <v>-1095181.736406338</v>
+        <v>-1095410.490828736</v>
       </c>
       <c r="F6" t="n">
-        <v>-5942.764242705336</v>
+        <v>-6171.518665103607</v>
       </c>
       <c r="G6" t="n">
-        <v>-74751.56360817586</v>
+        <v>-74817.84097972019</v>
       </c>
       <c r="H6" t="n">
-        <v>-37171.45431330185</v>
+        <v>-37237.73168484617</v>
       </c>
       <c r="I6" t="n">
-        <v>-73446.89158654626</v>
+        <v>-73446.89158654647</v>
       </c>
       <c r="J6" t="n">
-        <v>-76489.26861869164</v>
+        <v>-76489.26861869145</v>
       </c>
       <c r="K6" t="n">
-        <v>-51079.83559689458</v>
+        <v>-51079.83559689457</v>
       </c>
       <c r="L6" t="n">
-        <v>-88659.94489176881</v>
+        <v>-88659.94489176873</v>
       </c>
       <c r="M6" t="n">
         <v>-252494.4428074886</v>
       </c>
       <c r="N6" t="n">
-        <v>-50326.34281476434</v>
+        <v>-50326.34281476433</v>
       </c>
       <c r="O6" t="n">
-        <v>-50326.34281476436</v>
+        <v>-50326.3428147644</v>
       </c>
       <c r="P6" t="n">
-        <v>-50326.34281476442</v>
+        <v>-50326.3428147644</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="G2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I2" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790521</v>
+        <v>69.78465283790644</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,7 +26796,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
@@ -26808,7 +26808,7 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810298</v>
+        <v>917.2219352810303</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951244</v>
+        <v>50.70958360951236</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790521</v>
+        <v>69.78465283790644</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755392</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758462</v>
+        <v>97.11452592758417</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>336.6017083434005</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104727</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780175</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036572</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672116</v>
+        <v>84.22861846672106</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987533</v>
+        <v>90.83829126987517</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
         <v>151.6660875241797</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519099</v>
+        <v>84.46220888519083</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990584</v>
+        <v>7.649035050990328</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317069</v>
+        <v>75.62456067317052</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437879</v>
+        <v>171.6351144437878</v>
       </c>
       <c r="S10" t="n">
         <v>221.8235295207384</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712644</v>
+        <v>26.92014658712643</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712643</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="E17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="C19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="D19" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075594</v>
       </c>
       <c r="E19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="F19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="G19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="H19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="I19" t="n">
-        <v>11.49558901075604</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="S19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="T19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="U19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="V19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="W19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="X19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571901</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C22" t="n">
-        <v>11.4955890107565</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U22" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="V22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="V23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="C25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="D25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="E25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="F25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="G25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="H25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="I25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.49558901075609</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="S25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="T25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="U25" t="n">
-        <v>73.895283205719</v>
+        <v>11.49558901075636</v>
       </c>
       <c r="V25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="W25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="X25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.895283205719</v>
+        <v>73.89528320571898</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859213</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>54.14548214544447</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="T37" t="n">
-        <v>54.14548214544419</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810492</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I40" t="n">
-        <v>45.39291458738673</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>55.47778196371149</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E43" t="n">
-        <v>54.14548214544421</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810502</v>
+        <v>55.47778196371178</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="I46" t="n">
-        <v>54.14548214544431</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810502</v>
+        <v>97.68472022810489</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>55.47778196371183</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810502</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413273</v>
+        <v>0.2805413179413322</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366619</v>
+        <v>2.873093772366669</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993303</v>
+        <v>10.81556915993322</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362275</v>
+        <v>23.81059368362316</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207914</v>
+        <v>35.68590767207976</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102604</v>
+        <v>44.27152403102681</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396512</v>
+        <v>49.26060069396598</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356592</v>
+        <v>50.0576887135668</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328684</v>
+        <v>47.26805598328767</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661032</v>
+        <v>40.34219219661102</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783653</v>
+        <v>30.29530624783706</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313192</v>
+        <v>17.62255356313223</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588002</v>
+        <v>6.392835282588114</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288161</v>
+        <v>1.228069619288182</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530618</v>
+        <v>0.02244330543530657</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796452</v>
+        <v>0.1501028381796478</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840258</v>
+        <v>1.449677410840283</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693924</v>
+        <v>5.168014384694015</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906902</v>
+        <v>14.18142647906927</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710525</v>
+        <v>24.23831663710567</v>
       </c>
       <c r="L9" t="n">
-        <v>32.5914079126462</v>
+        <v>32.59140791264678</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665833</v>
+        <v>38.032635796659</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655605</v>
+        <v>39.03924649655674</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847023</v>
+        <v>35.71328360847085</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449734</v>
+        <v>28.66305863449784</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447541</v>
+        <v>19.16049562447575</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767799</v>
+        <v>9.319542882767962</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608758</v>
+        <v>2.788094384608807</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890082</v>
+        <v>0.6050197731890188</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345082</v>
+        <v>0.009875186722345254</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486815</v>
+        <v>0.1258411772486837</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811006</v>
+        <v>1.118842466811025</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078532</v>
+        <v>3.784387403078599</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481784</v>
+        <v>8.896971231481938</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489227</v>
+        <v>14.62045677489252</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477216</v>
+        <v>18.70915102477249</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908195</v>
+        <v>19.7261765390823</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115507</v>
+        <v>19.25713215115541</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875001</v>
+        <v>17.78707839875032</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287689</v>
+        <v>15.21991838287716</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852369</v>
+        <v>10.53748257852387</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381624</v>
+        <v>5.658276933381723</v>
       </c>
       <c r="S10" t="n">
-        <v>2.19306851623384</v>
+        <v>2.193068516233878</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5376850300625482</v>
+        <v>0.5376850300625576</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564455</v>
+        <v>0.006864064213564574</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32324,7 +32324,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
         <v>557.708647897025</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32801,7 +32801,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002927</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
         <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002924</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019263</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314459</v>
+        <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
         <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
         <v>371.7770927546665</v>
@@ -35583,7 +35583,7 @@
         <v>329.2732768097662</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q13" t="n">
         <v>105.3143851250201</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K16" t="n">
         <v>232.967806131446</v>
@@ -35972,7 +35972,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
         <v>415.1124034525806</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597742</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>560.5915047257112</v>
       </c>
       <c r="M23" t="n">
-        <v>878.7355412086605</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>614.4119707098153</v>
+        <v>643.8787818643248</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412321</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,28 +36832,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>675.9826703737867</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>388.38518494057</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>527.4262975833881</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>418.5312714465568</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
         <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629118</v>
       </c>
       <c r="L34" t="n">
         <v>366.7325087887907</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37245,7 +37245,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859622</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923334</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129119</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597689</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
